--- a/edp_fix_client/initiator/edp_regression_test/report/edp_report.xlsx
+++ b/edp_fix_client/initiator/edp_regression_test/report/edp_report.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,23 +458,23 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
-    <col width="19.2" customWidth="1" min="2" max="2"/>
+    <col width="171.6" customWidth="1" min="2" max="2"/>
     <col width="9.6" customWidth="1" min="3" max="3"/>
     <col width="14.4" customWidth="1" min="4" max="4"/>
-    <col width="22.8" customWidth="1" min="5" max="5"/>
+    <col width="69.59999999999999" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="10.8" customWidth="1" min="7" max="7"/>
-    <col width="8.4" customWidth="1" min="8" max="8"/>
-    <col width="7.199999999999999" customWidth="1" min="9" max="9"/>
-    <col width="9.6" customWidth="1" min="10" max="10"/>
-    <col width="15.6" customWidth="1" min="11" max="11"/>
-    <col width="22.8" customWidth="1" min="12" max="12"/>
-    <col width="10.8" customWidth="1" min="13" max="13"/>
-    <col width="14.4" customWidth="1" min="14" max="14"/>
-    <col width="27.6" customWidth="1" min="15" max="15"/>
-    <col width="9.6" customWidth="1" min="16" max="16"/>
-    <col width="25.2" customWidth="1" min="17" max="17"/>
-    <col width="27.6" customWidth="1" min="18" max="18"/>
+    <col width="7.199999999999999" customWidth="1" min="8" max="8"/>
+    <col width="9.6" customWidth="1" min="9" max="9"/>
+    <col width="15.6" customWidth="1" min="10" max="10"/>
+    <col width="22.8" customWidth="1" min="11" max="11"/>
+    <col width="10.8" customWidth="1" min="12" max="12"/>
+    <col width="14.4" customWidth="1" min="13" max="13"/>
+    <col width="27.6" customWidth="1" min="14" max="14"/>
+    <col width="9.6" customWidth="1" min="15" max="15"/>
+    <col width="25.2" customWidth="1" min="16" max="16"/>
+    <col width="27.6" customWidth="1" min="17" max="17"/>
+    <col width="8.4" customWidth="1" min="18" max="18"/>
     <col width="21.6" customWidth="1" min="19" max="19"/>
     <col width="9.6" customWidth="1" min="20" max="20"/>
   </cols>
@@ -517,57 +517,57 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
+          <t>Side</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>TimeInForce</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>CrossingPriceType</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Rule80A</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>CashMargin</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>MarginTransactionType</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>MinQty</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>OrderClassification</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>SelfTradePreventionId</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
           <t>Price</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Side</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Symbol</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>TimeInForce</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>CrossingPriceType</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Rule80A</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>CashMargin</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>MarginTransactionType</t>
-        </is>
-      </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>MinQty</t>
-        </is>
-      </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>OrderClassification</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="inlineStr">
-        <is>
-          <t>SelfTradePreventionId</t>
         </is>
       </c>
       <c r="S1" s="4" t="inlineStr">
@@ -584,112 +584,6718 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="T2" s="5" t="inlineStr">
+        <is>
+          <t>ps: 若列表存在failed数据，请查看report.log文件</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Sell</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="n"/>
+      <c r="T3" s="5" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="n">
+        <v>2220</v>
+      </c>
+      <c r="S4" s="5" t="n"/>
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>FixMsg is OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck_Sell</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="n">
+        <v>2209</v>
+      </c>
+      <c r="S5" s="5" t="n"/>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>execType is OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-B(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>6028</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="n"/>
+      <c r="T6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-B(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck_Sell</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>6028</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="R7" s="5" t="n">
+        <v>3060</v>
+      </c>
+      <c r="S7" s="5" t="n"/>
+      <c r="T7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr"/>
+      <c r="S8" s="5" t="n"/>
+      <c r="T8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>1379</v>
+      </c>
+      <c r="S9" s="5" t="n"/>
+      <c r="T9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>MinQty is none</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>EDP</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>NewAck</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>EDP_Market_NewAck</t>
         </is>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F10" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="5" t="inlineStr"/>
+      <c r="S10" s="5" t="n"/>
+      <c r="T10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="n"/>
+      <c r="T11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M12" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>241</v>
+      </c>
+      <c r="S12" s="5" t="n"/>
+      <c r="T12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="S13" s="5" t="n"/>
+      <c r="T13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; Canceled)</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M14" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N14" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="n"/>
+      <c r="T14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_CancelAck</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" s="5" t="inlineStr"/>
+      <c r="S15" s="5" t="n"/>
+      <c r="T15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M16" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>32980</v>
+      </c>
+      <c r="S16" s="5" t="n"/>
+      <c r="T16" s="5" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_CancelAck</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M17" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="n"/>
+      <c r="T17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M18" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N18" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="5" t="inlineStr"/>
+      <c r="S18" s="5" t="n"/>
+      <c r="T18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M19" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>347</v>
+      </c>
+      <c r="S19" s="5" t="n"/>
+      <c r="T19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M20" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N20" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q20" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>33110</v>
+      </c>
+      <c r="S20" s="5" t="n"/>
+      <c r="T20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_CancelAck</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M21" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N21" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q21" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>347</v>
+      </c>
+      <c r="S21" s="5" t="n"/>
+      <c r="T21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M22" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N22" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q22" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="5" t="inlineStr"/>
+      <c r="S22" s="5" t="n"/>
+      <c r="T22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M23" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N23" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q23" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" s="5" t="inlineStr"/>
+      <c r="S23" s="5" t="n"/>
+      <c r="T23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L24" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M24" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N24" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q24" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>628</v>
+      </c>
+      <c r="S24" s="5" t="n"/>
+      <c r="T24" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N25" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>624</v>
+      </c>
+      <c r="S25" s="5" t="n"/>
+      <c r="T25" s="5" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Canceled)</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N26" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q26" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R26" s="5" t="inlineStr"/>
+      <c r="S26" s="5" t="n"/>
+      <c r="T26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q27" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" s="5" t="inlineStr"/>
+      <c r="S27" s="5" t="n"/>
+      <c r="T27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q28" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="n"/>
+      <c r="T28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N29" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q29" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="n"/>
+      <c r="T29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q30" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" s="5" t="n">
+        <v>2300</v>
+      </c>
+      <c r="S30" s="5" t="n"/>
+      <c r="T30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L31" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M31" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N31" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q31" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" s="5" t="inlineStr"/>
+      <c r="S31" s="5" t="n"/>
+      <c r="T31" s="5" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G32" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I32" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L32" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M32" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N32" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q32" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="5" t="n">
+        <v>2350</v>
+      </c>
+      <c r="S32" s="5" t="n"/>
+      <c r="T32" s="5" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I33" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J33" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L33" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M33" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N33" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q33" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" s="5" t="inlineStr"/>
+      <c r="S33" s="5" t="n"/>
+      <c r="T33" s="5" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G34" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I34" s="5" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="J34" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L34" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M34" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N34" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q34" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R34" s="5" t="inlineStr"/>
+      <c r="S34" s="5" t="n"/>
+      <c r="T34" s="5" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L35" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M35" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N35" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q35" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R35" s="5" t="inlineStr"/>
+      <c r="S35" s="5" t="n"/>
+      <c r="T35" s="5" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="J36" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L36" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M36" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N36" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q36" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R36" s="5" t="n">
+        <v>650.1</v>
+      </c>
+      <c r="S36" s="5" t="n"/>
+      <c r="T36" s="5" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M37" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N37" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q37" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R37" s="5" t="n">
+        <v>600.1</v>
+      </c>
+      <c r="S37" s="5" t="n"/>
+      <c r="T37" s="5" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>Symbol Check</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L38" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M38" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N38" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q38" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R38" s="5" t="n">
+        <v>369</v>
+      </c>
+      <c r="S38" s="5" t="n"/>
+      <c r="T38" s="5" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>Price Limit Check</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>Price=Low-limit-1</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I39" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J39" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L39" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M39" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N39" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q39" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R39" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="S39" s="5" t="n"/>
+      <c r="T39" s="5" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>Price Limit Check</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>Price=High-limit+1</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L40" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M40" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N40" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q40" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R40" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="S40" s="5" t="n"/>
+      <c r="T40" s="5" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;1,000 Tick size != 0.1</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>1682</t>
+        </is>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L41" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M41" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N41" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q41" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R41" s="5" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="S41" s="5" t="n"/>
+      <c r="T41" s="5" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;3,000 Tick side != 0.5</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="J42" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L42" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M42" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N42" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q42" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R42" s="5" t="n">
+        <v>1302.6</v>
+      </c>
+      <c r="S42" s="5" t="n"/>
+      <c r="T42" s="5" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;1,0000 Tick size != 1</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I43" s="5" t="inlineStr">
+        <is>
+          <t>6965</t>
+        </is>
+      </c>
+      <c r="J43" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L43" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M43" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N43" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q43" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R43" s="5" t="n">
+        <v>5990.5</v>
+      </c>
+      <c r="S43" s="5" t="n"/>
+      <c r="T43" s="5" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;30,000 Tick side != 5</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G44" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I44" s="5" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="J44" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L44" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M44" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N44" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q44" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R44" s="5" t="n">
+        <v>24738</v>
+      </c>
+      <c r="S44" s="5" t="n"/>
+      <c r="T44" s="5" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;100,000 Tick side != 10</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G45" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="J45" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L45" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M45" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N45" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q45" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R45" s="5" t="n">
+        <v>50001</v>
+      </c>
+      <c r="S45" s="5" t="n"/>
+      <c r="T45" s="5" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;3,000 Tick side != 1</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L46" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M46" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N46" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q46" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R46" s="5" t="n">
+        <v>590.5</v>
+      </c>
+      <c r="S46" s="5" t="n"/>
+      <c r="T46" s="5" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;5,000  Tick side != 5</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G47" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I47" s="5" t="inlineStr">
+        <is>
+          <t>7740</t>
+        </is>
+      </c>
+      <c r="J47" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L47" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M47" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N47" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q47" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R47" s="5" t="n">
+        <v>4051</v>
+      </c>
+      <c r="S47" s="5" t="n"/>
+      <c r="T47" s="5" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;30,000 Tick side != 10</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G48" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I48" s="5" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L48" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M48" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N48" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q48" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R48" s="5" t="n">
+        <v>7428</v>
+      </c>
+      <c r="S48" s="5" t="n"/>
+      <c r="T48" s="5" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;50,000 Tick side != 50</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>3476</t>
+        </is>
+      </c>
+      <c r="J49" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L49" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M49" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N49" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q49" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R49" s="5" t="n">
+        <v>46008</v>
+      </c>
+      <c r="S49" s="5" t="n"/>
+      <c r="T49" s="5" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;300,000 Tick side != 100</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I50" s="5" t="inlineStr">
+        <is>
+          <t>1489</t>
+        </is>
+      </c>
+      <c r="J50" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L50" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M50" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N50" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q50" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R50" s="5" t="n">
+        <v>52750</v>
+      </c>
+      <c r="S50" s="5" t="n"/>
+      <c r="T50" s="5" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;500,000 Tick side != 500</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I51" s="5" t="inlineStr">
+        <is>
+          <t>8964</t>
+        </is>
+      </c>
+      <c r="J51" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L51" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M51" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N51" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q51" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R51" s="5" t="n">
+        <v>401009</v>
+      </c>
+      <c r="S51" s="5" t="n"/>
+      <c r="T51" s="5" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=99)</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=99</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="G52" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I52" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L52" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M52" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N52" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q52" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R52" s="5" t="inlineStr"/>
+      <c r="S52" s="5" t="n"/>
+      <c r="T52" s="5" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=0)</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=0</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I53" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J53" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L53" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M53" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N53" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q53" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R53" s="5" t="inlineStr"/>
+      <c r="S53" s="5" t="n"/>
+      <c r="T53" s="5" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=100)</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=100</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>50001</v>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>5110</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>EDP</t>
-        </is>
-      </c>
-      <c r="M2" s="5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="N2" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R2" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="T2" s="5" t="inlineStr">
-        <is>
-          <t>ps: 若列表存在failed数据，请查看report.log文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>FixMsg is OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>execType is OK</t>
-        </is>
-      </c>
+      <c r="G54" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I54" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J54" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L54" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M54" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N54" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q54" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R54" s="5" t="inlineStr"/>
+      <c r="S54" s="5" t="n"/>
+      <c r="T54" s="5" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=200)</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=200</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="G55" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H55" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I55" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J55" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L55" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M55" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N55" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q55" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R55" s="5" t="inlineStr"/>
+      <c r="S55" s="5" t="n"/>
+      <c r="T55" s="5" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=101)</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=101</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="G56" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I56" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J56" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L56" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M56" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N56" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q56" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R56" s="5" t="inlineStr"/>
+      <c r="S56" s="5" t="n"/>
+      <c r="T56" s="5" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1,Quantity=1)</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I57" s="5" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="J57" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L57" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M57" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N57" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q57" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R57" s="5" t="inlineStr"/>
+      <c r="S57" s="5" t="n"/>
+      <c r="T57" s="5" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1,Quantity=7)</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I58" s="5" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="J58" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L58" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M58" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N58" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q58" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R58" s="5" t="inlineStr"/>
+      <c r="S58" s="5" t="n"/>
+      <c r="T58" s="5" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1000,Quantity=1000)</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H59" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I59" s="5" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="J59" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L59" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M59" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N59" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q59" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R59" s="5" t="inlineStr"/>
+      <c r="S59" s="5" t="n"/>
+      <c r="T59" s="5" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1000,Quantity=2000)</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I60" s="5" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="J60" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L60" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M60" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N60" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q60" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R60" s="5" t="inlineStr"/>
+      <c r="S60" s="5" t="n"/>
+      <c r="T60" s="5" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1000,Quantity=1001)</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G61" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L61" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M61" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N61" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q61" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R61" s="5" t="inlineStr"/>
+      <c r="S61" s="5" t="n"/>
+      <c r="T61" s="5" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>Notional Value&gt;2million JPY</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E62" s="5" t="inlineStr">
+        <is>
+          <t>Notional Value&gt;2million JPY</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G62" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I62" s="5" t="inlineStr">
+        <is>
+          <t>8301</t>
+        </is>
+      </c>
+      <c r="J62" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L62" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M62" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N62" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q62" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R62" s="5" t="inlineStr"/>
+      <c r="S62" s="5" t="n"/>
+      <c r="T62" s="5" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>Order Type is not Limit/Market (Limit/Market Acceptable)</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr">
+        <is>
+          <t>Order Type is not Limit/Market (Limit/Market Acceptable)</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G63" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J63" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L63" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M63" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N63" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q63" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R63" s="5" t="inlineStr"/>
+      <c r="S63" s="5" t="n"/>
+      <c r="T63" s="5" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>TimeInForce is not 3:IOC</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="inlineStr">
+        <is>
+          <t>TimeInForce is not 0:IOC</t>
+        </is>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G64" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H64" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I64" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J64" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L64" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M64" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N64" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q64" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R64" s="5" t="inlineStr"/>
+      <c r="S64" s="5" t="n"/>
+      <c r="T64" s="5" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>Order Side is not Buy/Sell (Buy/Sell Acceptable)</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>Order Side is not Buy/Sell (Buy/Sell Acceptable)</t>
+        </is>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G65" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I65" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J65" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L65" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M65" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N65" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q65" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R65" s="5" t="inlineStr"/>
+      <c r="S65" s="5" t="n"/>
+      <c r="T65" s="5" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>Account is not the target test account</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="inlineStr">
+        <is>
+          <t>Account is not the target test account</t>
+        </is>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G66" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I66" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J66" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L66" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M66" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N66" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q66" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R66" s="5" t="inlineStr"/>
+      <c r="S66" s="5" t="n"/>
+      <c r="T66" s="5" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>Rule80A is not Agency/Principal</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>Rule80A is not Agency/Principal</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G67" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I67" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J67" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N67" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q67" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R67" s="5" t="inlineStr"/>
+      <c r="S67" s="5" t="n"/>
+      <c r="T67" s="5" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>CashMargin is not Cash (Cash Acceptable)</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E68" s="5" t="inlineStr">
+        <is>
+          <t>CashMargin is not Cash (Cash Acceptable)</t>
+        </is>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G68" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H68" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I68" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J68" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L68" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M68" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N68" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q68" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R68" s="5" t="inlineStr"/>
+      <c r="S68" s="5" t="n"/>
+      <c r="T68" s="5" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>MarginTransactionType is not 0-None</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>MarginTransactionType is not 0-None</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G69" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I69" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J69" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K69" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L69" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M69" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N69" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q69" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R69" s="5" t="inlineStr"/>
+      <c r="S69" s="5" t="n"/>
+      <c r="T69" s="5" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>CrossingPriceType is not EDP</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>CrossingPriceType is not EDP</t>
+        </is>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G70" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I70" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J70" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K70" s="5" t="inlineStr">
+        <is>
+          <t>ROL</t>
+        </is>
+      </c>
+      <c r="L70" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M70" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N70" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q70" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R70" s="5" t="inlineStr"/>
+      <c r="S70" s="5" t="n"/>
+      <c r="T70" s="5" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - Rule80A</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E71" s="5" t="inlineStr">
+        <is>
+          <t>Rule80A</t>
+        </is>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G71" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H71" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I71" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J71" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K71" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L71" s="5" t="inlineStr"/>
+      <c r="M71" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N71" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O71" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q71" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R71" s="5" t="inlineStr"/>
+      <c r="S71" s="5" t="n"/>
+      <c r="T71" s="5" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - TimeInForce</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
+          <t>TimeInForce</t>
+        </is>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G72" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I72" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J72" s="5" t="inlineStr"/>
+      <c r="K72" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L72" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M72" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N72" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q72" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R72" s="5" t="inlineStr"/>
+      <c r="S72" s="5" t="n"/>
+      <c r="T72" s="5" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - CashMargin</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E73" s="5" t="inlineStr">
+        <is>
+          <t>CashMargin</t>
+        </is>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G73" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J73" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K73" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L73" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M73" s="5" t="inlineStr"/>
+      <c r="N73" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O73" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q73" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R73" s="5" t="inlineStr"/>
+      <c r="S73" s="5" t="n"/>
+      <c r="T73" s="5" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - CrossingPriceType</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E74" s="5" t="inlineStr">
+        <is>
+          <t>CrossingPriceType</t>
+        </is>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G74" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I74" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J74" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K74" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L74" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M74" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N74" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O74" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q74" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R74" s="5" t="inlineStr"/>
+      <c r="S74" s="5" t="n"/>
+      <c r="T74" s="5" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - MarginTransactionType</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E75" s="5" t="inlineStr">
+        <is>
+          <t>MarginTransactionType</t>
+        </is>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G75" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H75" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I75" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J75" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K75" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L75" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M75" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N75" s="5" t="inlineStr"/>
+      <c r="O75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q75" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R75" s="5" t="inlineStr"/>
+      <c r="S75" s="5" t="n"/>
+      <c r="T75" s="5" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - MinQty</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E76" s="5" t="inlineStr">
+        <is>
+          <t>MinQty</t>
+        </is>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G76" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H76" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I76" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J76" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K76" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L76" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M76" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N76" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O76" s="5" t="inlineStr"/>
+      <c r="P76" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q76" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R76" s="5" t="inlineStr"/>
+      <c r="S76" s="5" t="n"/>
+      <c r="T76" s="5" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - OrderClassification</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E77" s="5" t="inlineStr">
+        <is>
+          <t>OrderClassification</t>
+        </is>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G77" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H77" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I77" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J77" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K77" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L77" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M77" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N77" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" s="5" t="inlineStr"/>
+      <c r="Q77" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R77" s="5" t="inlineStr"/>
+      <c r="S77" s="5" t="n"/>
+      <c r="T77" s="5" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - SelfTradePreventionId</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E78" s="5" t="inlineStr">
+        <is>
+          <t>SelfTradePreventionId</t>
+        </is>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G78" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H78" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I78" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J78" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K78" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L78" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M78" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N78" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O78" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q78" s="5" t="inlineStr"/>
+      <c r="R78" s="5" t="inlineStr"/>
+      <c r="S78" s="5" t="n"/>
+      <c r="T78" s="5" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for all non-required tag</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E79" s="5" t="inlineStr">
+        <is>
+          <t>SelfTradePreventionId</t>
+        </is>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G79" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H79" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I79" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J79" s="5" t="inlineStr"/>
+      <c r="K79" s="5" t="inlineStr"/>
+      <c r="L79" s="5" t="inlineStr"/>
+      <c r="M79" s="5" t="inlineStr"/>
+      <c r="N79" s="5" t="inlineStr"/>
+      <c r="O79" s="5" t="inlineStr"/>
+      <c r="P79" s="5" t="inlineStr"/>
+      <c r="Q79" s="5" t="inlineStr"/>
+      <c r="R79" s="5" t="inlineStr"/>
+      <c r="S79" s="5" t="n"/>
+      <c r="T79" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/edp_fix_client/initiator/edp_regression_test/report/edp_report.xlsx
+++ b/edp_fix_client/initiator/edp_regression_test/report/edp_report.xlsx
@@ -71,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -80,6 +80,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -449,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,24 +461,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
-    <col width="19.2" customWidth="1" min="2" max="2"/>
+    <col width="171.6" customWidth="1" min="2" max="2"/>
     <col width="9.6" customWidth="1" min="3" max="3"/>
     <col width="14.4" customWidth="1" min="4" max="4"/>
-    <col width="22.8" customWidth="1" min="5" max="5"/>
+    <col width="69.59999999999999" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="10.8" customWidth="1" min="7" max="7"/>
-    <col width="8.4" customWidth="1" min="8" max="8"/>
-    <col width="7.199999999999999" customWidth="1" min="9" max="9"/>
-    <col width="9.6" customWidth="1" min="10" max="10"/>
-    <col width="15.6" customWidth="1" min="11" max="11"/>
-    <col width="22.8" customWidth="1" min="12" max="12"/>
-    <col width="10.8" customWidth="1" min="13" max="13"/>
-    <col width="14.4" customWidth="1" min="14" max="14"/>
-    <col width="27.6" customWidth="1" min="15" max="15"/>
-    <col width="9.6" customWidth="1" min="16" max="16"/>
-    <col width="25.2" customWidth="1" min="17" max="17"/>
-    <col width="27.6" customWidth="1" min="18" max="18"/>
-    <col width="21.6" customWidth="1" min="19" max="19"/>
+    <col width="7.199999999999999" customWidth="1" min="8" max="8"/>
+    <col width="9.6" customWidth="1" min="9" max="9"/>
+    <col width="15.6" customWidth="1" min="10" max="10"/>
+    <col width="22.8" customWidth="1" min="11" max="11"/>
+    <col width="10.8" customWidth="1" min="12" max="12"/>
+    <col width="14.4" customWidth="1" min="13" max="13"/>
+    <col width="27.6" customWidth="1" min="14" max="14"/>
+    <col width="9.6" customWidth="1" min="15" max="15"/>
+    <col width="25.2" customWidth="1" min="16" max="16"/>
+    <col width="27.6" customWidth="1" min="17" max="17"/>
+    <col width="8.4" customWidth="1" min="18" max="18"/>
+    <col width="55.2" customWidth="1" min="19" max="19"/>
     <col width="9.6" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
@@ -517,179 +520,6921 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
+          <t>Side</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>TimeInForce</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>CrossingPriceType</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Rule80A</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>CashMargin</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>MarginTransactionType</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>MinQty</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>OrderClassification</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>SelfTradePreventionId</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Side</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Symbol</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
+        <is>
+          <t>Execution Result</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>Remark</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" s="6" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="J2" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q2" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" s="6" t="inlineStr"/>
+      <c r="S2" s="6" t="inlineStr"/>
+      <c r="T2" s="6" t="inlineStr">
+        <is>
+          <t>ps: 若列表存在failed数据，请查看report.log文件</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Sell</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q3" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" s="6" t="inlineStr"/>
+      <c r="S3" s="6" t="inlineStr"/>
+      <c r="T3" s="6" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L4" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M4" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q4" s="6" t="inlineStr"/>
+      <c r="R4" s="6" t="n">
+        <v>2220</v>
+      </c>
+      <c r="S4" s="6" t="inlineStr"/>
+      <c r="T4" s="6" t="inlineStr">
+        <is>
+          <t>FixMsg is OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck_Sell</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L5" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M5" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q5" s="6" t="inlineStr"/>
+      <c r="R5" s="6" t="n">
+        <v>2209</v>
+      </c>
+      <c r="S5" s="6" t="inlineStr"/>
+      <c r="T5" s="6" t="inlineStr">
+        <is>
+          <t>execType is OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-B(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>6028</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L6" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M6" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q6" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R6" s="6" t="inlineStr"/>
+      <c r="S6" s="6" t="inlineStr"/>
+      <c r="T6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-B(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck_Sell</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>6028</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q7" s="6" t="inlineStr"/>
+      <c r="R7" s="6" t="n">
+        <v>3060</v>
+      </c>
+      <c r="S7" s="6" t="inlineStr"/>
+      <c r="T7" s="6" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K8" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L8" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N8" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q8" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="6" t="inlineStr"/>
+      <c r="S8" s="6" t="inlineStr"/>
+      <c r="T8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K9" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L9" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N9" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q9" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>1379</v>
+      </c>
+      <c r="S9" s="6" t="inlineStr"/>
+      <c r="T9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q10" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="6" t="inlineStr"/>
+      <c r="S10" s="6" t="inlineStr"/>
+      <c r="T10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K11" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L11" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N11" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q11" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" s="6" t="inlineStr"/>
+      <c r="S11" s="6" t="inlineStr"/>
+      <c r="T11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="J12" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K12" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L12" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q12" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" s="6" t="n">
+        <v>241</v>
+      </c>
+      <c r="S12" s="6" t="inlineStr"/>
+      <c r="T12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="J13" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M13" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q13" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" s="6" t="n">
+        <v>240</v>
+      </c>
+      <c r="S13" s="6" t="inlineStr"/>
+      <c r="T13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; Canceled)</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K14" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L14" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M14" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N14" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q14" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" s="6" t="inlineStr"/>
+      <c r="S14" s="6" t="inlineStr"/>
+      <c r="T14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_CancelAck</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K15" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L15" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M15" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N15" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q15" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" s="6" t="inlineStr"/>
+      <c r="S15" s="6" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="T15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L16" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M16" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q16" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="6" t="n">
+        <v>32980</v>
+      </c>
+      <c r="S16" s="6" t="inlineStr"/>
+      <c r="T16" s="6" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_CancelAck</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K17" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L17" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M17" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N17" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q17" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="6" t="inlineStr"/>
+      <c r="S17" s="6" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="T17" s="6" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="J18" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K18" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L18" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M18" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N18" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q18" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="6" t="inlineStr"/>
+      <c r="S18" s="6" t="inlineStr"/>
+      <c r="T18" s="6" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L19" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M19" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q19" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>347</v>
+      </c>
+      <c r="S19" s="6" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="T19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K20" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L20" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M20" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N20" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q20" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>33110</v>
+      </c>
+      <c r="S20" s="6" t="inlineStr"/>
+      <c r="T20" s="6" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_CancelAck</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K21" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L21" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M21" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N21" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q21" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="6" t="n">
+        <v>347</v>
+      </c>
+      <c r="S21" s="6" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="T21" s="6" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="6" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="J22" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K22" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L22" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M22" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N22" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q22" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="6" t="inlineStr"/>
+      <c r="S22" s="6" t="inlineStr"/>
+      <c r="T22" s="6" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="J23" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K23" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L23" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M23" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N23" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q23" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" s="6" t="inlineStr"/>
+      <c r="S23" s="6" t="inlineStr"/>
+      <c r="T23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H24" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I24" s="6" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="J24" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K24" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L24" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M24" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N24" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q24" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R24" s="6" t="n">
+        <v>628</v>
+      </c>
+      <c r="S24" s="6" t="inlineStr"/>
+      <c r="T24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I25" s="6" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="J25" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K25" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L25" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M25" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N25" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q25" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R25" s="6" t="n">
+        <v>624</v>
+      </c>
+      <c r="S25" s="6" t="inlineStr"/>
+      <c r="T25" s="6" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Canceled)</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G26" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I26" s="6" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J26" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K26" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L26" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M26" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N26" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q26" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R26" s="6" t="inlineStr"/>
+      <c r="S26" s="6" t="inlineStr"/>
+      <c r="T26" s="6" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G27" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I27" s="6" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J27" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K27" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L27" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M27" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N27" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q27" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" s="6" t="inlineStr"/>
+      <c r="S27" s="6" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="T27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G28" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H28" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I28" s="6" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J28" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K28" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L28" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M28" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N28" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q28" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="6" t="inlineStr"/>
+      <c r="S28" s="6" t="inlineStr"/>
+      <c r="T28" s="6" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I29" s="6" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J29" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K29" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L29" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M29" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N29" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q29" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" s="6" t="inlineStr"/>
+      <c r="S29" s="6" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="T29" s="6" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G30" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H30" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I30" s="6" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J30" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K30" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L30" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M30" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N30" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q30" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" s="6" t="n">
+        <v>2300</v>
+      </c>
+      <c r="S30" s="6" t="inlineStr"/>
+      <c r="T30" s="6" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G31" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H31" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I31" s="6" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J31" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K31" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L31" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M31" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N31" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q31" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" s="6" t="inlineStr"/>
+      <c r="S31" s="6" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="T31" s="6" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H32" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I32" s="6" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J32" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K32" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L32" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M32" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N32" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q32" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="6" t="n">
+        <v>2350</v>
+      </c>
+      <c r="S32" s="6" t="inlineStr"/>
+      <c r="T32" s="6" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H33" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I33" s="6" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="J33" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K33" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L33" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M33" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N33" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q33" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" s="6" t="inlineStr"/>
+      <c r="S33" s="6" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="T33" s="6" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G34" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I34" s="6" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="J34" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K34" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L34" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M34" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N34" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q34" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R34" s="6" t="inlineStr"/>
+      <c r="S34" s="6" t="inlineStr"/>
+      <c r="T34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G35" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I35" s="6" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="J35" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K35" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L35" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M35" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N35" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q35" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R35" s="6" t="inlineStr"/>
+      <c r="S35" s="6" t="inlineStr"/>
+      <c r="T35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D36" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G36" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H36" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I36" s="6" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="J36" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K36" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L36" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M36" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N36" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q36" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R36" s="6" t="n">
+        <v>650.1</v>
+      </c>
+      <c r="S36" s="6" t="inlineStr"/>
+      <c r="T36" s="6" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G37" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H37" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I37" s="6" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="J37" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K37" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L37" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M37" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N37" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q37" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R37" s="6" t="n">
+        <v>600.1</v>
+      </c>
+      <c r="S37" s="6" t="inlineStr"/>
+      <c r="T37" s="6" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>Symbol Check</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G38" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H38" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I38" s="6" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="J38" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K38" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L38" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M38" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N38" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q38" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R38" s="6" t="n">
+        <v>369</v>
+      </c>
+      <c r="S38" s="6" t="inlineStr">
+        <is>
+          <t>Invalid Symbol</t>
+        </is>
+      </c>
+      <c r="T38" s="6" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>Price Limit Check</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>Price=Low-limit-1</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G39" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H39" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I39" s="6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J39" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K39" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L39" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M39" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N39" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q39" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R39" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="S39" s="6" t="inlineStr">
+        <is>
+          <t>Price exceeds the high - low price range</t>
+        </is>
+      </c>
+      <c r="T39" s="6" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>Price Limit Check</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D40" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>Price=High-limit+1</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G40" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H40" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I40" s="6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J40" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K40" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L40" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M40" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N40" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q40" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R40" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="S40" s="6" t="inlineStr">
+        <is>
+          <t>Price exceeds the high - low price range</t>
+        </is>
+      </c>
+      <c r="T40" s="6" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;1,000 Tick size != 0.1</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G41" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H41" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I41" s="6" t="inlineStr">
+        <is>
+          <t>1682</t>
+        </is>
+      </c>
+      <c r="J41" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K41" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L41" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M41" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N41" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q41" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R41" s="6" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="S41" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with small tick</t>
+        </is>
+      </c>
+      <c r="T41" s="6" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;3,000 Tick side != 0.5</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H42" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I42" s="6" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="J42" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K42" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L42" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M42" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N42" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q42" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R42" s="6" t="n">
+        <v>1302.6</v>
+      </c>
+      <c r="S42" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with small tick</t>
+        </is>
+      </c>
+      <c r="T42" s="6" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;1,0000 Tick size != 1</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G43" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H43" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I43" s="6" t="inlineStr">
+        <is>
+          <t>6965</t>
+        </is>
+      </c>
+      <c r="J43" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K43" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L43" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M43" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N43" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q43" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R43" s="6" t="n">
+        <v>5990.5</v>
+      </c>
+      <c r="S43" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with small tick</t>
+        </is>
+      </c>
+      <c r="T43" s="6" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;30,000 Tick side != 5</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G44" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H44" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I44" s="6" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="J44" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K44" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L44" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M44" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N44" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q44" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R44" s="6" t="n">
+        <v>24738</v>
+      </c>
+      <c r="S44" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with small tick</t>
+        </is>
+      </c>
+      <c r="T44" s="6" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;100,000 Tick side != 10</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G45" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H45" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I45" s="6" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="J45" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K45" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L45" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M45" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N45" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q45" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R45" s="6" t="n">
+        <v>50001</v>
+      </c>
+      <c r="S45" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with small tick</t>
+        </is>
+      </c>
+      <c r="T45" s="6" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;3,000 Tick side != 1</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G46" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H46" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I46" s="6" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+      <c r="J46" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K46" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L46" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M46" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N46" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q46" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R46" s="6" t="n">
+        <v>590.5</v>
+      </c>
+      <c r="S46" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="T46" s="6" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;5,000  Tick side != 5</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G47" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H47" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I47" s="6" t="inlineStr">
+        <is>
+          <t>7740</t>
+        </is>
+      </c>
+      <c r="J47" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K47" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L47" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M47" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N47" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q47" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R47" s="6" t="n">
+        <v>4051</v>
+      </c>
+      <c r="S47" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="T47" s="6" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;30,000 Tick side != 10</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G48" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H48" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I48" s="6" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="J48" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K48" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L48" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M48" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N48" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q48" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R48" s="6" t="n">
+        <v>7428</v>
+      </c>
+      <c r="S48" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="T48" s="6" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;50,000 Tick side != 50</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G49" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H49" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I49" s="6" t="inlineStr">
+        <is>
+          <t>3476</t>
+        </is>
+      </c>
+      <c r="J49" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K49" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L49" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M49" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N49" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q49" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R49" s="6" t="n">
+        <v>46008</v>
+      </c>
+      <c r="S49" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="T49" s="6" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;300,000 Tick side != 100</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H50" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I50" s="6" t="inlineStr">
+        <is>
+          <t>3470</t>
+        </is>
+      </c>
+      <c r="J50" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K50" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L50" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M50" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N50" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q50" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R50" s="6" t="n">
+        <v>128701</v>
+      </c>
+      <c r="S50" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="T50" s="6" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>Price&lt;500,000 Tick side != 500</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G51" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H51" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I51" s="6" t="inlineStr">
+        <is>
+          <t>8964</t>
+        </is>
+      </c>
+      <c r="J51" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K51" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L51" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M51" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N51" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q51" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R51" s="6" t="n">
+        <v>401009</v>
+      </c>
+      <c r="S51" s="6" t="inlineStr">
+        <is>
+          <t>Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="T51" s="6" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=99)</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=99</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="G52" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H52" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I52" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J52" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K52" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L52" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M52" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N52" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q52" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R52" s="6" t="inlineStr"/>
+      <c r="S52" s="6" t="inlineStr">
+        <is>
+          <t>Invalid quantity or lot_size</t>
+        </is>
+      </c>
+      <c r="T52" s="6" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=0)</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=0</t>
+        </is>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H53" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I53" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J53" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K53" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L53" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M53" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N53" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q53" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R53" s="6" t="inlineStr"/>
+      <c r="S53" s="6" t="inlineStr">
+        <is>
+          <t>Invalid quantity or lot_size</t>
+        </is>
+      </c>
+      <c r="T53" s="6" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=100)</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=100</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G54" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H54" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I54" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J54" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K54" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L54" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M54" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N54" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q54" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R54" s="6" t="inlineStr"/>
+      <c r="S54" s="6" t="inlineStr"/>
+      <c r="T54" s="6" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=200)</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=200</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G55" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H55" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I55" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J55" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K55" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L55" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M55" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N55" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q55" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R55" s="6" t="inlineStr"/>
+      <c r="S55" s="6" t="inlineStr"/>
+      <c r="T55" s="6" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=101)</t>
+        </is>
+      </c>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=101</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="G56" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H56" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I56" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J56" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K56" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L56" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M56" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N56" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q56" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R56" s="6" t="inlineStr"/>
+      <c r="S56" s="6" t="inlineStr">
+        <is>
+          <t>Invalid quantity or lot_size</t>
+        </is>
+      </c>
+      <c r="T56" s="6" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1,Quantity=1)</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I57" s="6" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="J57" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K57" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L57" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M57" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N57" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q57" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R57" s="6" t="inlineStr"/>
+      <c r="S57" s="6" t="inlineStr"/>
+      <c r="T57" s="6" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1,Quantity=7)</t>
+        </is>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D58" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H58" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I58" s="6" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="J58" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K58" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L58" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M58" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N58" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q58" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R58" s="6" t="inlineStr"/>
+      <c r="S58" s="6" t="inlineStr"/>
+      <c r="T58" s="6" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1000,Quantity=1000)</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H59" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I59" s="6" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="J59" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K59" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L59" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M59" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N59" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q59" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R59" s="6" t="inlineStr"/>
+      <c r="S59" s="6" t="inlineStr"/>
+      <c r="T59" s="6" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1000,Quantity=2000)</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D60" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H60" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I60" s="6" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="J60" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K60" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L60" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M60" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N60" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q60" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R60" s="6" t="inlineStr"/>
+      <c r="S60" s="6" t="inlineStr"/>
+      <c r="T60" s="6" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1000,Quantity=1001)</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F61" s="6" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G61" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H61" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I61" s="6" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="J61" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K61" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L61" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M61" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N61" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q61" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R61" s="6" t="inlineStr"/>
+      <c r="S61" s="6" t="inlineStr">
+        <is>
+          <t>Invalid quantity or lot_size</t>
+        </is>
+      </c>
+      <c r="T61" s="6" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
+        <is>
+          <t>Notional Value&gt;2million JPY</t>
+        </is>
+      </c>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D62" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>Notional Value&gt;2million JPY</t>
+        </is>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G62" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H62" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I62" s="6" t="inlineStr">
+        <is>
+          <t>8301</t>
+        </is>
+      </c>
+      <c r="J62" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K62" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L62" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M62" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N62" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q62" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R62" s="6" t="inlineStr"/>
+      <c r="S62" s="6" t="inlineStr">
+        <is>
+          <t>Notional limit is exceeded</t>
+        </is>
+      </c>
+      <c r="T62" s="6" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>Order Type is not Limit/Market (Limit/Market Acceptable)</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>Order Type is not Limit/Market (Limit/Market Acceptable)</t>
+        </is>
+      </c>
+      <c r="F63" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G63" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H63" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I63" s="6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J63" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K63" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L63" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M63" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N63" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q63" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R63" s="6" t="inlineStr"/>
+      <c r="S63" s="6" t="inlineStr">
+        <is>
+          <t>OrdType is not supported</t>
+        </is>
+      </c>
+      <c r="T63" s="6" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>TimeInForce is not 3:IOC</t>
+        </is>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D64" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>TimeInForce is not 0:IOC</t>
+        </is>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G64" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H64" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I64" s="6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J64" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K64" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L64" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M64" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N64" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q64" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R64" s="6" t="inlineStr"/>
+      <c r="S64" s="6" t="inlineStr">
+        <is>
+          <t>TimeInForce is not supported</t>
+        </is>
+      </c>
+      <c r="T64" s="6" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>Order Side is not Buy/Sell (Buy/Sell Acceptable)</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>Order Side is not Buy/Sell (Buy/Sell Acceptable)</t>
+        </is>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G65" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H65" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I65" s="6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J65" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K65" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L65" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M65" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N65" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q65" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R65" s="6" t="inlineStr"/>
+      <c r="S65" s="6" t="inlineStr">
+        <is>
+          <t>Side is not supported</t>
+        </is>
+      </c>
+      <c r="T65" s="6" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="inlineStr">
+        <is>
+          <t>Account is not the target test account</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D66" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>Account is not the target test account</t>
+        </is>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G66" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H66" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I66" s="6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J66" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K66" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L66" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M66" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N66" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q66" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R66" s="6" t="inlineStr"/>
+      <c r="S66" s="6" t="inlineStr">
+        <is>
+          <t>Invalid account</t>
+        </is>
+      </c>
+      <c r="T66" s="6" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>Rule80A is not Agency/Principal</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>Rule80A is not Agency/Principal</t>
+        </is>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G67" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H67" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I67" s="6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J67" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K67" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L67" s="6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M67" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N67" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q67" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R67" s="6" t="inlineStr"/>
+      <c r="S67" s="6" t="inlineStr">
+        <is>
+          <t>Rule80A is not supported</t>
+        </is>
+      </c>
+      <c r="T67" s="6" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>CashMargin is not Cash (Cash Acceptable)</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D68" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>CashMargin is not Cash (Cash Acceptable)</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G68" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H68" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I68" s="6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J68" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K68" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L68" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M68" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N68" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q68" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R68" s="6" t="inlineStr"/>
+      <c r="S68" s="6" t="inlineStr">
+        <is>
+          <t>CashMargin is not supported</t>
+        </is>
+      </c>
+      <c r="T68" s="6" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>MarginTransactionType is not 0-None</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>MarginTransactionType is not 0-None</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G69" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H69" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I69" s="6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J69" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K69" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L69" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M69" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N69" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q69" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R69" s="6" t="inlineStr"/>
+      <c r="S69" s="6" t="inlineStr">
+        <is>
+          <t>MarginTransactionType is not supported</t>
+        </is>
+      </c>
+      <c r="T69" s="6" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>CrossingPriceType is not EDP</t>
+        </is>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D70" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>CrossingPriceType is not EDP</t>
+        </is>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G70" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H70" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I70" s="6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="J70" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K70" s="6" t="inlineStr">
+        <is>
+          <t>ROL</t>
+        </is>
+      </c>
+      <c r="L70" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M70" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N70" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q70" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R70" s="6" t="inlineStr"/>
+      <c r="S70" s="6" t="inlineStr">
+        <is>
+          <t>CrossingPriceType is not supported</t>
+        </is>
+      </c>
+      <c r="T70" s="6" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - Rule80A</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>Rule80A</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G71" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H71" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I71" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J71" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K71" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L71" s="6" t="inlineStr"/>
+      <c r="M71" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N71" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q71" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R71" s="6" t="inlineStr"/>
+      <c r="S71" s="6" t="inlineStr"/>
+      <c r="T71" s="6" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - TimeInForce</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E72" s="6" t="inlineStr">
         <is>
           <t>TimeInForce</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="F72" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G72" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H72" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I72" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J72" s="6" t="inlineStr"/>
+      <c r="K72" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L72" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M72" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N72" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q72" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R72" s="6" t="inlineStr"/>
+      <c r="S72" s="6" t="inlineStr"/>
+      <c r="T72" s="6" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - CashMargin</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>CashMargin</t>
+        </is>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G73" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H73" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I73" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J73" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K73" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L73" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M73" s="6" t="inlineStr"/>
+      <c r="N73" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O73" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q73" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R73" s="6" t="inlineStr"/>
+      <c r="S73" s="6" t="inlineStr"/>
+      <c r="T73" s="6" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - CrossingPriceType</t>
+        </is>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="inlineStr">
         <is>
           <t>CrossingPriceType</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Rule80A</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>CashMargin</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="F74" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G74" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H74" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I74" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J74" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K74" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L74" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M74" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N74" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q74" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R74" s="6" t="inlineStr"/>
+      <c r="S74" s="6" t="inlineStr"/>
+      <c r="T74" s="6" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - MarginTransactionType</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E75" s="6" t="inlineStr">
         <is>
           <t>MarginTransactionType</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="F75" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G75" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H75" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I75" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J75" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K75" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L75" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M75" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N75" s="6" t="inlineStr"/>
+      <c r="O75" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q75" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R75" s="6" t="inlineStr"/>
+      <c r="S75" s="6" t="inlineStr"/>
+      <c r="T75" s="6" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - MinQty</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E76" s="6" t="inlineStr">
         <is>
           <t>MinQty</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="F76" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G76" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H76" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I76" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J76" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K76" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L76" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M76" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N76" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O76" s="6" t="inlineStr"/>
+      <c r="P76" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q76" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R76" s="6" t="inlineStr"/>
+      <c r="S76" s="6" t="inlineStr"/>
+      <c r="T76" s="6" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - OrderClassification</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E77" s="6" t="inlineStr">
         <is>
           <t>OrderClassification</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="F77" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G77" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H77" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I77" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J77" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K77" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L77" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M77" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N77" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O77" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" s="6" t="inlineStr"/>
+      <c r="Q77" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R77" s="6" t="inlineStr"/>
+      <c r="S77" s="6" t="inlineStr"/>
+      <c r="T77" s="6" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - SelfTradePreventionId</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D78" s="6" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E78" s="6" t="inlineStr">
         <is>
           <t>SelfTradePreventionId</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
-        <is>
-          <t>Execution Result</t>
-        </is>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>Remark</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>MinQty is none</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>EDP</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="F78" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G78" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H78" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I78" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J78" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K78" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="L78" s="6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="M78" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N78" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q78" s="6" t="inlineStr"/>
+      <c r="R78" s="6" t="inlineStr"/>
+      <c r="S78" s="6" t="inlineStr"/>
+      <c r="T78" s="6" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>Absense value for all non-required tag</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
         <is>
           <t>NewAck</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>EDP_Market_NewAck</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>50001</v>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>5110</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>EDP</t>
-        </is>
-      </c>
-      <c r="M2" s="5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="N2" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R2" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="T2" s="5" t="inlineStr">
-        <is>
-          <t>ps: 若列表存在failed数据，请查看report.log文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>FixMsg is OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>execType is OK</t>
-        </is>
-      </c>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>SelfTradePreventionId</t>
+        </is>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G79" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H79" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I79" s="6" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="J79" s="6" t="inlineStr"/>
+      <c r="K79" s="6" t="inlineStr"/>
+      <c r="L79" s="6" t="inlineStr"/>
+      <c r="M79" s="6" t="inlineStr"/>
+      <c r="N79" s="6" t="inlineStr"/>
+      <c r="O79" s="6" t="inlineStr"/>
+      <c r="P79" s="6" t="inlineStr"/>
+      <c r="Q79" s="6" t="inlineStr"/>
+      <c r="R79" s="6" t="inlineStr"/>
+      <c r="S79" s="6" t="inlineStr"/>
+      <c r="T79" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/edp_fix_client/initiator/edp_regression_test/report/edp_report.xlsx
+++ b/edp_fix_client/initiator/edp_regression_test/report/edp_report.xlsx
@@ -71,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -79,6 +79,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -446,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,25 +456,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
-    <col width="19.2" customWidth="1" min="2" max="2"/>
+    <col width="171.6" customWidth="1" min="2" max="2"/>
     <col width="9.6" customWidth="1" min="3" max="3"/>
     <col width="14.4" customWidth="1" min="4" max="4"/>
-    <col width="22.8" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="10.8" customWidth="1" min="7" max="7"/>
-    <col width="8.4" customWidth="1" min="8" max="8"/>
-    <col width="7.199999999999999" customWidth="1" min="9" max="9"/>
-    <col width="9.6" customWidth="1" min="10" max="10"/>
-    <col width="15.6" customWidth="1" min="11" max="11"/>
-    <col width="22.8" customWidth="1" min="12" max="12"/>
-    <col width="10.8" customWidth="1" min="13" max="13"/>
-    <col width="14.4" customWidth="1" min="14" max="14"/>
-    <col width="27.6" customWidth="1" min="15" max="15"/>
-    <col width="9.6" customWidth="1" min="16" max="16"/>
-    <col width="25.2" customWidth="1" min="17" max="17"/>
-    <col width="27.6" customWidth="1" min="18" max="18"/>
-    <col width="21.6" customWidth="1" min="19" max="19"/>
-    <col width="9.6" customWidth="1" min="20" max="20"/>
+    <col width="145.2" customWidth="1" min="5" max="5"/>
+    <col width="10.8" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="32.4" customWidth="1" min="8" max="8"/>
+    <col width="84" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="21.6" customWidth="1" min="12" max="12"/>
+    <col width="9.6" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,189 +498,3917 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>OrderQty</t>
+          <t>OrdType</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>OrdType</t>
+          <t>Symbol</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>ordstatus</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Side</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Symbol</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
+          <t>errorCode</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>RecvOrdStatus</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>RecvErrorCode</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>Execution Result</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>Remark</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Trading Hours Check: Send order before Open(～9:00))</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>9998</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010062,EDP order rejected due to out of trading hours</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="5" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Sell</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck_Sell</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Regular Order Flow-B(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP ToSTNeT Confirmation) -&gt; IOC Expired </t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>6028</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '1', '4']</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Regular Order Flow-B(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP ToSTNeT Confirmation) -&gt; IOC Expired </t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck_Sell</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>6028</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '1', '4']</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '1', '2']</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="5" t="n"/>
+      <c r="L9" s="5" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-A(New Order-&gt;EDP Partially Fill Indicate-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Confirmation)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck_Buy</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '1', '2']</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="5" t="n"/>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4']</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_30010053,Order rejected due to TOSTNET Cross Reporting failure</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="5" t="n"/>
+      <c r="L11" s="5" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4']</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_30010053,Order rejected due to TOSTNET Cross Reporting failure</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4']</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_30010053,Order rejected due to TOSTNET Cross Reporting failure</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="5" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-C(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Rejection)</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4']</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_30010053,Order rejected due to TOSTNET Cross Reporting failure</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="5" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; Canceled)</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="n"/>
+      <c r="K15" s="5" t="n"/>
+      <c r="L15" s="5" t="n"/>
+      <c r="M15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_CancelAck</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="n"/>
+      <c r="K16" s="5" t="n"/>
+      <c r="L16" s="5" t="n"/>
+      <c r="M16" s="5" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="J17" s="5" t="n"/>
+      <c r="K17" s="5" t="n"/>
+      <c r="L17" s="5" t="n"/>
+      <c r="M17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_CancelAck</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="n"/>
+      <c r="K18" s="5" t="n"/>
+      <c r="L18" s="5" t="n"/>
+      <c r="M18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '1', '4']</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="J19" s="5" t="n"/>
+      <c r="K19" s="5" t="n"/>
+      <c r="L19" s="5" t="n"/>
+      <c r="M19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="n"/>
+      <c r="K20" s="5" t="n"/>
+      <c r="L20" s="5" t="n"/>
+      <c r="M20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '1', '4']</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr"/>
+      <c r="J21" s="5" t="n"/>
+      <c r="K21" s="5" t="n"/>
+      <c r="L21" s="5" t="n"/>
+      <c r="M21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-D(New Order-&gt;EDP Partially Fill Indicate-&gt; EDP ToSTNeT Accepted -&gt;EDP ToSTNeT Confirmation -&gt; IOCExpired-&gt;Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_CancelAck</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="J22" s="5" t="n"/>
+      <c r="K22" s="5" t="n"/>
+      <c r="L22" s="5" t="n"/>
+      <c r="M22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4']</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="J23" s="5" t="n"/>
+      <c r="K23" s="5" t="n"/>
+      <c r="L23" s="5" t="n"/>
+      <c r="M23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4']</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="J24" s="5" t="n"/>
+      <c r="K24" s="5" t="n"/>
+      <c r="L24" s="5" t="n"/>
+      <c r="M24" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4']</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr"/>
+      <c r="J25" s="5" t="n"/>
+      <c r="K25" s="5" t="n"/>
+      <c r="L25" s="5" t="n"/>
+      <c r="M25" s="5" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-F(New Order-&gt;EDP Fill Indicate-&gt;EDP ToSTNeT Expired)</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4']</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="J26" s="5" t="n"/>
+      <c r="K26" s="5" t="n"/>
+      <c r="L26" s="5" t="n"/>
+      <c r="M26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Canceled)</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr"/>
+      <c r="J27" s="5" t="n"/>
+      <c r="K27" s="5" t="n"/>
+      <c r="L27" s="5" t="n"/>
+      <c r="M27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="n"/>
+      <c r="K28" s="5" t="n"/>
+      <c r="L28" s="5" t="n"/>
+      <c r="M28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="J29" s="5" t="n"/>
+      <c r="K29" s="5" t="n"/>
+      <c r="L29" s="5" t="n"/>
+      <c r="M29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="n"/>
+      <c r="K30" s="5" t="n"/>
+      <c r="L30" s="5" t="n"/>
+      <c r="M30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr"/>
+      <c r="J31" s="5" t="n"/>
+      <c r="K31" s="5" t="n"/>
+      <c r="L31" s="5" t="n"/>
+      <c r="M31" s="5" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I32" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="J32" s="5" t="n"/>
+      <c r="K32" s="5" t="n"/>
+      <c r="L32" s="5" t="n"/>
+      <c r="M32" s="5" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt;Canceled)</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I33" s="5" t="inlineStr"/>
+      <c r="J33" s="5" t="n"/>
+      <c r="K33" s="5" t="n"/>
+      <c r="L33" s="5" t="n"/>
+      <c r="M33" s="5" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Cancel Rejected)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>CancelAck</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>New Order-&gt; IOCExpired-&gt; Cancel</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I34" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="J34" s="5" t="n"/>
+      <c r="K34" s="5" t="n"/>
+      <c r="L34" s="5" t="n"/>
+      <c r="M34" s="5" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I35" s="5" t="inlineStr"/>
+      <c r="J35" s="5" t="n"/>
+      <c r="K35" s="5" t="n"/>
+      <c r="L35" s="5" t="n"/>
+      <c r="M35" s="5" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="inlineStr"/>
+      <c r="J36" s="5" t="n"/>
+      <c r="K36" s="5" t="n"/>
+      <c r="L36" s="5" t="n"/>
+      <c r="M36" s="5" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr"/>
+      <c r="J37" s="5" t="n"/>
+      <c r="K37" s="5" t="n"/>
+      <c r="L37" s="5" t="n"/>
+      <c r="M37" s="5" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>Regular Order Flow-H(New Order-&gt;IOCExpired)</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="inlineStr"/>
+      <c r="J38" s="5" t="n"/>
+      <c r="K38" s="5" t="n"/>
+      <c r="L38" s="5" t="n"/>
+      <c r="M38" s="5" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>Symbol Check</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>EDP_Limit_NewAck</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I39" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010013,No available instrument risk check data found</t>
+        </is>
+      </c>
+      <c r="J39" s="5" t="n"/>
+      <c r="K39" s="5" t="n"/>
+      <c r="L39" s="5" t="n"/>
+      <c r="M39" s="5" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>Price Limit Check</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>Price=Low-limit-1</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010014,Price exceeds the high - low price range</t>
+        </is>
+      </c>
+      <c r="J40" s="5" t="n"/>
+      <c r="K40" s="5" t="n"/>
+      <c r="L40" s="5" t="n"/>
+      <c r="M40" s="5" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>Price Limit Check</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>Price=High-limit+1</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010014,Price exceeds the high - low price range</t>
+        </is>
+      </c>
+      <c r="J41" s="5" t="n"/>
+      <c r="K41" s="5" t="n"/>
+      <c r="L41" s="5" t="n"/>
+      <c r="M41" s="5" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;1,000 Tick size != 0.1</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>1682</t>
+        </is>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010015,Tick-size is not matched with small tick</t>
+        </is>
+      </c>
+      <c r="J42" s="5" t="n"/>
+      <c r="K42" s="5" t="n"/>
+      <c r="L42" s="5" t="n"/>
+      <c r="M42" s="5" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;3,000 Tick side != 0.5</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I43" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010015,Tick-size is not matched with small tick</t>
+        </is>
+      </c>
+      <c r="J43" s="5" t="n"/>
+      <c r="K43" s="5" t="n"/>
+      <c r="L43" s="5" t="n"/>
+      <c r="M43" s="5" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;1,0000 Tick size != 1</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="inlineStr">
+        <is>
+          <t>6965</t>
+        </is>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I44" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010015,Tick-size is not matched with small tick</t>
+        </is>
+      </c>
+      <c r="J44" s="5" t="n"/>
+      <c r="K44" s="5" t="n"/>
+      <c r="L44" s="5" t="n"/>
+      <c r="M44" s="5" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;30,000 Tick side != 5</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010015,Tick-size is not matched with small tick</t>
+        </is>
+      </c>
+      <c r="J45" s="5" t="n"/>
+      <c r="K45" s="5" t="n"/>
+      <c r="L45" s="5" t="n"/>
+      <c r="M45" s="5" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;100,000 Tick side != 10</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010015,Tick-size is not matched with small tick</t>
+        </is>
+      </c>
+      <c r="J46" s="5" t="n"/>
+      <c r="K46" s="5" t="n"/>
+      <c r="L46" s="5" t="n"/>
+      <c r="M46" s="5" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;3,000 Tick side != 1</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I47" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="J47" s="5" t="n"/>
+      <c r="K47" s="5" t="n"/>
+      <c r="L47" s="5" t="n"/>
+      <c r="M47" s="5" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;5,000  Tick side != 5</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr">
+        <is>
+          <t>7740</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I48" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="J48" s="5" t="n"/>
+      <c r="K48" s="5" t="n"/>
+      <c r="L48" s="5" t="n"/>
+      <c r="M48" s="5" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;30,000 Tick side != 10</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="J49" s="5" t="n"/>
+      <c r="K49" s="5" t="n"/>
+      <c r="L49" s="5" t="n"/>
+      <c r="M49" s="5" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;50,000 Tick side != 50</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="inlineStr">
+        <is>
+          <t>3476</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I50" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="J50" s="5" t="n"/>
+      <c r="K50" s="5" t="n"/>
+      <c r="L50" s="5" t="n"/>
+      <c r="M50" s="5" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;300,000 Tick side != 100</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>8963</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I51" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="J51" s="5" t="n"/>
+      <c r="K51" s="5" t="n"/>
+      <c r="L51" s="5" t="n"/>
+      <c r="M51" s="5" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>Tick Size Check(Non-TOPIX400)</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>Price&lt;500,000 Tick side != 500</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr">
+        <is>
+          <t>8964</t>
+        </is>
+      </c>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I52" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
+        </is>
+      </c>
+      <c r="J52" s="5" t="n"/>
+      <c r="K52" s="5" t="n"/>
+      <c r="L52" s="5" t="n"/>
+      <c r="M52" s="5" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=99)</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=99</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I53" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010018,Invalid quantity or lot_size</t>
+        </is>
+      </c>
+      <c r="J53" s="5" t="n"/>
+      <c r="K53" s="5" t="n"/>
+      <c r="L53" s="5" t="n"/>
+      <c r="M53" s="5" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=0)</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=0</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I54" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010018,Invalid quantity or lot_size</t>
+        </is>
+      </c>
+      <c r="J54" s="5" t="n"/>
+      <c r="K54" s="5" t="n"/>
+      <c r="L54" s="5" t="n"/>
+      <c r="M54" s="5" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=100)</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=100</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H55" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="J55" s="5" t="n"/>
+      <c r="K55" s="5" t="n"/>
+      <c r="L55" s="5" t="n"/>
+      <c r="M55" s="5" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=200)</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=200</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I56" s="5" t="inlineStr"/>
+      <c r="J56" s="5" t="n"/>
+      <c r="K56" s="5" t="n"/>
+      <c r="L56" s="5" t="n"/>
+      <c r="M56" s="5" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=100,Quantity=101)</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=100,Quantity=101</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I57" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010018,Invalid quantity or lot_size</t>
+        </is>
+      </c>
+      <c r="J57" s="5" t="n"/>
+      <c r="K57" s="5" t="n"/>
+      <c r="L57" s="5" t="n"/>
+      <c r="M57" s="5" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1,Quantity=1)</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I58" s="5" t="inlineStr"/>
+      <c r="J58" s="5" t="n"/>
+      <c r="K58" s="5" t="n"/>
+      <c r="L58" s="5" t="n"/>
+      <c r="M58" s="5" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1,Quantity=7)</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G59" s="5" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="H59" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I59" s="5" t="inlineStr"/>
+      <c r="J59" s="5" t="n"/>
+      <c r="K59" s="5" t="n"/>
+      <c r="L59" s="5" t="n"/>
+      <c r="M59" s="5" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1000,Quantity=1000)</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I60" s="5" t="inlineStr"/>
+      <c r="J60" s="5" t="n"/>
+      <c r="K60" s="5" t="n"/>
+      <c r="L60" s="5" t="n"/>
+      <c r="M60" s="5" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1000,Quantity=2000)</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G61" s="5" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="inlineStr"/>
+      <c r="J61" s="5" t="n"/>
+      <c r="K61" s="5" t="n"/>
+      <c r="L61" s="5" t="n"/>
+      <c r="M61" s="5" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>Quantity Check(Lot size=1000,Quantity=1001)</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E62" s="5" t="inlineStr">
+        <is>
+          <t>Lot size=1,Quantity=1</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I62" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010018,Invalid quantity or lot_size</t>
+        </is>
+      </c>
+      <c r="J62" s="5" t="n"/>
+      <c r="K62" s="5" t="n"/>
+      <c r="L62" s="5" t="n"/>
+      <c r="M62" s="5" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>Notional Value&gt;2million JPY</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr">
+        <is>
+          <t>Notional Value&gt;2million JPY</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G63" s="5" t="inlineStr">
+        <is>
+          <t>8301</t>
+        </is>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010011,Notional limit is exceeded</t>
+        </is>
+      </c>
+      <c r="J63" s="5" t="n"/>
+      <c r="K63" s="5" t="n"/>
+      <c r="L63" s="5" t="n"/>
+      <c r="M63" s="5" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>Order Type is not Limit/Market (Limit/Market Acceptable)</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="inlineStr">
+        <is>
+          <t>Order Type is not Limit/Market (Limit/Market Acceptable)</t>
+        </is>
+      </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="H64" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I64" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010003,OrdType is not supported</t>
+        </is>
+      </c>
+      <c r="J64" s="5" t="n"/>
+      <c r="K64" s="5" t="n"/>
+      <c r="L64" s="5" t="n"/>
+      <c r="M64" s="5" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>TimeInForce is not 3:IOC</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>TimeInForce is not 0:IOC</t>
+        </is>
+      </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G65" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I65" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010012,TimeInForce is not supported</t>
+        </is>
+      </c>
+      <c r="J65" s="5" t="n"/>
+      <c r="K65" s="5" t="n"/>
+      <c r="L65" s="5" t="n"/>
+      <c r="M65" s="5" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>Order Side is not Buy/Sell (Buy/Sell Acceptable)</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="inlineStr">
+        <is>
+          <t>Order Side is not Buy/Sell (Buy/Sell Acceptable)</t>
+        </is>
+      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I66" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010004,Side is not supported</t>
+        </is>
+      </c>
+      <c r="J66" s="5" t="n"/>
+      <c r="K66" s="5" t="n"/>
+      <c r="L66" s="5" t="n"/>
+      <c r="M66" s="5" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>Account is not the target test account</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>Account is not the target test account</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G67" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I67" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010009,Invalid account</t>
+        </is>
+      </c>
+      <c r="J67" s="5" t="n"/>
+      <c r="K67" s="5" t="n"/>
+      <c r="L67" s="5" t="n"/>
+      <c r="M67" s="5" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>Rule80A is not Agency/Principal</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E68" s="5" t="inlineStr">
+        <is>
+          <t>Rule80A is not Agency/Principal</t>
+        </is>
+      </c>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="H68" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I68" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010025,Rule80A is not supported</t>
+        </is>
+      </c>
+      <c r="J68" s="5" t="n"/>
+      <c r="K68" s="5" t="n"/>
+      <c r="L68" s="5" t="n"/>
+      <c r="M68" s="5" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>CashMargin is not Cash (Cash Acceptable)</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>CashMargin is not Cash (Cash Acceptable)</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I69" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010026,CashMargin is not supported</t>
+        </is>
+      </c>
+      <c r="J69" s="5" t="n"/>
+      <c r="K69" s="5" t="n"/>
+      <c r="L69" s="5" t="n"/>
+      <c r="M69" s="5" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>MarginTransactionType is not 0-None</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>MarginTransactionType is not 0-None</t>
+        </is>
+      </c>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I70" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010027,MarginTransactionType is not supported</t>
+        </is>
+      </c>
+      <c r="J70" s="5" t="n"/>
+      <c r="K70" s="5" t="n"/>
+      <c r="L70" s="5" t="n"/>
+      <c r="M70" s="5" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>CrossingPriceType is not EDP</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E71" s="5" t="inlineStr">
+        <is>
+          <t>CrossingPriceType is not EDP</t>
+        </is>
+      </c>
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G71" s="5" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="H71" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="I71" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010028,CrossingPriceType is not supported</t>
+        </is>
+      </c>
+      <c r="J71" s="5" t="n"/>
+      <c r="K71" s="5" t="n"/>
+      <c r="L71" s="5" t="n"/>
+      <c r="M71" s="5" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - Rule80A</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
+          <t>Rule80A</t>
+        </is>
+      </c>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I72" s="5" t="inlineStr"/>
+      <c r="J72" s="5" t="n"/>
+      <c r="K72" s="5" t="n"/>
+      <c r="L72" s="5" t="n"/>
+      <c r="M72" s="5" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - TimeInForce</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E73" s="5" t="inlineStr">
         <is>
           <t>TimeInForce</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I73" s="5" t="inlineStr"/>
+      <c r="J73" s="5" t="n"/>
+      <c r="K73" s="5" t="n"/>
+      <c r="L73" s="5" t="n"/>
+      <c r="M73" s="5" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - CashMargin</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E74" s="5" t="inlineStr">
+        <is>
+          <t>CashMargin</t>
+        </is>
+      </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I74" s="5" t="inlineStr"/>
+      <c r="J74" s="5" t="n"/>
+      <c r="K74" s="5" t="n"/>
+      <c r="L74" s="5" t="n"/>
+      <c r="M74" s="5" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - CrossingPriceType</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E75" s="5" t="inlineStr">
         <is>
           <t>CrossingPriceType</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Rule80A</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>CashMargin</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G75" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H75" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I75" s="5" t="inlineStr"/>
+      <c r="J75" s="5" t="n"/>
+      <c r="K75" s="5" t="n"/>
+      <c r="L75" s="5" t="n"/>
+      <c r="M75" s="5" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - MarginTransactionType</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E76" s="5" t="inlineStr">
         <is>
           <t>MarginTransactionType</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H76" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I76" s="5" t="inlineStr"/>
+      <c r="J76" s="5" t="n"/>
+      <c r="K76" s="5" t="n"/>
+      <c r="L76" s="5" t="n"/>
+      <c r="M76" s="5" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - MinQty</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E77" s="5" t="inlineStr">
         <is>
           <t>MinQty</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H77" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I77" s="5" t="inlineStr"/>
+      <c r="J77" s="5" t="n"/>
+      <c r="K77" s="5" t="n"/>
+      <c r="L77" s="5" t="n"/>
+      <c r="M77" s="5" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - OrderClassification</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E78" s="5" t="inlineStr">
         <is>
           <t>OrderClassification</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H78" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I78" s="5" t="inlineStr"/>
+      <c r="J78" s="5" t="n"/>
+      <c r="K78" s="5" t="n"/>
+      <c r="L78" s="5" t="n"/>
+      <c r="M78" s="5" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for non-required tag - SelfTradePreventionId</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E79" s="5" t="inlineStr">
         <is>
           <t>SelfTradePreventionId</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
-        <is>
-          <t>Execution Result</t>
-        </is>
-      </c>
-      <c r="T1" s="3" t="inlineStr">
-        <is>
-          <t>Remark</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>MinQty is none</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>EDP</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>NewAck</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>EDP_Market_NewAck</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>50001</v>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>5110</t>
-        </is>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>EDP</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R2" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="T2" s="4" t="inlineStr">
-        <is>
-          <t>ps: 若列表存在failed数据，请查看report.log文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>FixMsg is OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>execType is OK</t>
-        </is>
-      </c>
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G79" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H79" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I79" s="5" t="inlineStr"/>
+      <c r="J79" s="5" t="n"/>
+      <c r="K79" s="5" t="n"/>
+      <c r="L79" s="5" t="n"/>
+      <c r="M79" s="5" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>Absense value for all non-required tag</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>EDP</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E80" s="5" t="inlineStr">
+        <is>
+          <t>Rule80A&amp;TimeInForce&amp;CashMargin&amp;CrossingPriceType&amp;MarginTransactionType&amp;MinQty&amp;OrderClassification&amp;SelfTradePreventionId</t>
+        </is>
+      </c>
+      <c r="F80" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="H80" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I80" s="5" t="inlineStr"/>
+      <c r="J80" s="5" t="n"/>
+      <c r="K80" s="5" t="n"/>
+      <c r="L80" s="5" t="n"/>
+      <c r="M80" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/edp_fix_client/initiator/edp_regression_test/report/edp_report.xlsx
+++ b/edp_fix_client/initiator/edp_regression_test/report/edp_report.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>9998</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
@@ -583,10 +583,26 @@
           <t>ERROR_10010062,EDP order rejected due to out of trading hours</t>
         </is>
       </c>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="n"/>
-      <c r="M2" s="5" t="n"/>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>ps: 若列表存在failed数据，请查看report.log文件</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -621,7 +637,7 @@
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
@@ -630,9 +646,21 @@
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M3" s="5" t="n"/>
     </row>
     <row r="4">
@@ -668,7 +696,7 @@
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
@@ -677,10 +705,26 @@
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>FixMsg is OK</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -715,7 +759,7 @@
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
@@ -724,10 +768,26 @@
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>execType is OK</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
@@ -762,7 +822,7 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
@@ -771,9 +831,21 @@
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M6" s="5" t="n"/>
     </row>
     <row r="7">
@@ -809,7 +881,7 @@
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>6028</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
@@ -818,9 +890,21 @@
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5" t="n"/>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '1', '2']</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M7" s="5" t="n"/>
     </row>
     <row r="8">
@@ -856,7 +940,7 @@
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>6028</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
@@ -865,9 +949,21 @@
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '1', '4']</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M8" s="5" t="n"/>
     </row>
     <row r="9">
@@ -903,7 +999,7 @@
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>2993</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
@@ -912,9 +1008,21 @@
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '1', '2']</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M9" s="5" t="n"/>
     </row>
     <row r="10">
@@ -950,7 +1058,7 @@
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
@@ -959,9 +1067,21 @@
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '2', '1']</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M10" s="5" t="n"/>
     </row>
     <row r="11">
@@ -997,7 +1117,7 @@
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
@@ -1010,9 +1130,21 @@
           <t>ERROR_30010053,Order rejected due to TOSTNET Cross Reporting failure</t>
         </is>
       </c>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4', '4']</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M11" s="5" t="n"/>
     </row>
     <row r="12">
@@ -1048,7 +1180,7 @@
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
@@ -1061,9 +1193,21 @@
           <t>ERROR_30010053,Order rejected due to TOSTNET Cross Reporting failure</t>
         </is>
       </c>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4', '4']</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M12" s="5" t="n"/>
     </row>
     <row r="13">
@@ -1099,7 +1243,7 @@
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
@@ -1112,9 +1256,21 @@
           <t>ERROR_30010053,Order rejected due to TOSTNET Cross Reporting failure</t>
         </is>
       </c>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4', '4']</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M13" s="5" t="n"/>
     </row>
     <row r="14">
@@ -1150,7 +1306,7 @@
       </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
@@ -1163,9 +1319,21 @@
           <t>ERROR_30010053,Order rejected due to TOSTNET Cross Reporting failure</t>
         </is>
       </c>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4', '4']</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M14" s="5" t="n"/>
     </row>
     <row r="15">
@@ -1201,7 +1369,7 @@
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="H15" s="5" t="inlineStr">
@@ -1210,9 +1378,21 @@
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="5" t="n"/>
-      <c r="L15" s="5" t="n"/>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M15" s="5" t="n"/>
     </row>
     <row r="16">
@@ -1248,7 +1428,7 @@
       </c>
       <c r="G16" s="5" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="H16" s="5" t="inlineStr">
@@ -1261,9 +1441,21 @@
           <t>Unknown order</t>
         </is>
       </c>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M16" s="5" t="n"/>
     </row>
     <row r="17">
@@ -1299,7 +1491,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>2927</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
@@ -1308,9 +1500,21 @@
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M17" s="5" t="n"/>
     </row>
     <row r="18">
@@ -1346,7 +1550,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>2927</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
@@ -1359,9 +1563,21 @@
           <t>Unknown order</t>
         </is>
       </c>
-      <c r="J18" s="5" t="n"/>
-      <c r="K18" s="5" t="n"/>
-      <c r="L18" s="5" t="n"/>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M18" s="5" t="n"/>
     </row>
     <row r="19">
@@ -1397,7 +1613,7 @@
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
@@ -1406,9 +1622,21 @@
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '1', '4']</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M19" s="5" t="n"/>
     </row>
     <row r="20">
@@ -1444,7 +1672,7 @@
       </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
@@ -1457,9 +1685,21 @@
           <t>Unknown order</t>
         </is>
       </c>
-      <c r="J20" s="5" t="n"/>
-      <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M20" s="5" t="n"/>
     </row>
     <row r="21">
@@ -1495,7 +1735,7 @@
       </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
@@ -1504,9 +1744,21 @@
         </is>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="n"/>
-      <c r="K21" s="5" t="n"/>
-      <c r="L21" s="5" t="n"/>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '1', '4']</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M21" s="5" t="n"/>
     </row>
     <row r="22">
@@ -1542,7 +1794,7 @@
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="H22" s="5" t="inlineStr">
@@ -1555,9 +1807,21 @@
           <t>Unknown order</t>
         </is>
       </c>
-      <c r="J22" s="5" t="n"/>
-      <c r="K22" s="5" t="n"/>
-      <c r="L22" s="5" t="n"/>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M22" s="5" t="n"/>
     </row>
     <row r="23">
@@ -1593,18 +1857,30 @@
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>['0', '2', '4']</t>
+          <t>['0', '2', '4', '4']</t>
         </is>
       </c>
       <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="n"/>
-      <c r="K23" s="5" t="n"/>
-      <c r="L23" s="5" t="n"/>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4', '4']</t>
+        </is>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M23" s="5" t="n"/>
     </row>
     <row r="24">
@@ -1640,18 +1916,30 @@
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>['0', '2', '4']</t>
+          <t>['0', '2', '4', '4']</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="n"/>
-      <c r="K24" s="5" t="n"/>
-      <c r="L24" s="5" t="n"/>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4', '4']</t>
+        </is>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L24" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M24" s="5" t="n"/>
     </row>
     <row r="25">
@@ -1687,18 +1975,30 @@
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>['0', '2', '4']</t>
+          <t>['0', '2', '4', '4']</t>
         </is>
       </c>
       <c r="I25" s="5" t="inlineStr"/>
-      <c r="J25" s="5" t="n"/>
-      <c r="K25" s="5" t="n"/>
-      <c r="L25" s="5" t="n"/>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4', '4']</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M25" s="5" t="n"/>
     </row>
     <row r="26">
@@ -1734,18 +2034,30 @@
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>['0', '2', '4']</t>
+          <t>['0', '2', '4', '4']</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr"/>
-      <c r="J26" s="5" t="n"/>
-      <c r="K26" s="5" t="n"/>
-      <c r="L26" s="5" t="n"/>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '4', '4']</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M26" s="5" t="n"/>
     </row>
     <row r="27">
@@ -1756,7 +2068,7 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>Regular Order Flow-G(New Order-&gt; IOCExpired-&gt; Canceled)</t>
+          <t>Regular Order Flow-G(New Order-&gt; ToSTNeT Confirmation-&gt; Canceled)</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
@@ -1781,18 +2093,30 @@
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>['0', '4']</t>
+          <t>['0', '2', '2']</t>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr"/>
-      <c r="J27" s="5" t="n"/>
-      <c r="K27" s="5" t="n"/>
-      <c r="L27" s="5" t="n"/>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M27" s="5" t="n"/>
     </row>
     <row r="28">
@@ -1828,7 +2152,7 @@
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
@@ -1841,9 +2165,21 @@
           <t>Unknown order</t>
         </is>
       </c>
-      <c r="J28" s="5" t="n"/>
-      <c r="K28" s="5" t="n"/>
-      <c r="L28" s="5" t="n"/>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M28" s="5" t="n"/>
     </row>
     <row r="29">
@@ -1879,18 +2215,30 @@
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>2927</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>['0', '4']</t>
+          <t>['0', '2', '2']</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr"/>
-      <c r="J29" s="5" t="n"/>
-      <c r="K29" s="5" t="n"/>
-      <c r="L29" s="5" t="n"/>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M29" s="5" t="n"/>
     </row>
     <row r="30">
@@ -1926,7 +2274,7 @@
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>2927</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
@@ -1939,9 +2287,21 @@
           <t>Unknown order</t>
         </is>
       </c>
-      <c r="J30" s="5" t="n"/>
-      <c r="K30" s="5" t="n"/>
-      <c r="L30" s="5" t="n"/>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M30" s="5" t="n"/>
     </row>
     <row r="31">
@@ -1977,18 +2337,30 @@
       </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>['0', '4']</t>
+          <t>['0', '2', '2']</t>
         </is>
       </c>
       <c r="I31" s="5" t="inlineStr"/>
-      <c r="J31" s="5" t="n"/>
-      <c r="K31" s="5" t="n"/>
-      <c r="L31" s="5" t="n"/>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L31" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M31" s="5" t="n"/>
     </row>
     <row r="32">
@@ -2024,7 +2396,7 @@
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
@@ -2037,9 +2409,21 @@
           <t>Unknown order</t>
         </is>
       </c>
-      <c r="J32" s="5" t="n"/>
-      <c r="K32" s="5" t="n"/>
-      <c r="L32" s="5" t="n"/>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="L32" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M32" s="5" t="n"/>
     </row>
     <row r="33">
@@ -2075,18 +2459,30 @@
       </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>['0', '4']</t>
+          <t>['0', '2', '2']</t>
         </is>
       </c>
       <c r="I33" s="5" t="inlineStr"/>
-      <c r="J33" s="5" t="n"/>
-      <c r="K33" s="5" t="n"/>
-      <c r="L33" s="5" t="n"/>
+      <c r="J33" s="5" t="inlineStr">
+        <is>
+          <t>['0', '1', '1', '1', '1', '4']</t>
+        </is>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L33" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M33" s="5" t="n"/>
     </row>
     <row r="34">
@@ -2122,7 +2518,7 @@
       </c>
       <c r="G34" s="5" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="H34" s="5" t="inlineStr">
@@ -2135,9 +2531,21 @@
           <t>Unknown order</t>
         </is>
       </c>
-      <c r="J34" s="5" t="n"/>
-      <c r="K34" s="5" t="n"/>
-      <c r="L34" s="5" t="n"/>
+      <c r="J34" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>Unknown order</t>
+        </is>
+      </c>
+      <c r="L34" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M34" s="5" t="n"/>
     </row>
     <row r="35">
@@ -2182,9 +2590,21 @@
         </is>
       </c>
       <c r="I35" s="5" t="inlineStr"/>
-      <c r="J35" s="5" t="n"/>
-      <c r="K35" s="5" t="n"/>
-      <c r="L35" s="5" t="n"/>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_20010063,Order rejected due to SOR Limit Price Control, sor_price=701.5 exceeds TSE_High=701</t>
+        </is>
+      </c>
+      <c r="L35" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M35" s="5" t="n"/>
     </row>
     <row r="36">
@@ -2229,9 +2649,21 @@
         </is>
       </c>
       <c r="I36" s="5" t="inlineStr"/>
-      <c r="J36" s="5" t="n"/>
-      <c r="K36" s="5" t="n"/>
-      <c r="L36" s="5" t="n"/>
+      <c r="J36" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L36" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M36" s="5" t="n"/>
     </row>
     <row r="37">
@@ -2276,9 +2708,21 @@
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr"/>
-      <c r="J37" s="5" t="n"/>
-      <c r="K37" s="5" t="n"/>
-      <c r="L37" s="5" t="n"/>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M37" s="5" t="n"/>
     </row>
     <row r="38">
@@ -2323,9 +2767,21 @@
         </is>
       </c>
       <c r="I38" s="5" t="inlineStr"/>
-      <c r="J38" s="5" t="n"/>
-      <c r="K38" s="5" t="n"/>
-      <c r="L38" s="5" t="n"/>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L38" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M38" s="5" t="n"/>
     </row>
     <row r="39">
@@ -2374,9 +2830,21 @@
           <t>ERROR_10010013,No available instrument risk check data found</t>
         </is>
       </c>
-      <c r="J39" s="5" t="n"/>
-      <c r="K39" s="5" t="n"/>
-      <c r="L39" s="5" t="n"/>
+      <c r="J39" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010013,No available instrument risk check data found: instrumentDate=not_found,expectedDate=20231020</t>
+        </is>
+      </c>
+      <c r="L39" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M39" s="5" t="n"/>
     </row>
     <row r="40">
@@ -2412,7 +2880,7 @@
       </c>
       <c r="G40" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="H40" s="5" t="inlineStr">
@@ -2425,9 +2893,21 @@
           <t>ERROR_10010014,Price exceeds the high - low price range</t>
         </is>
       </c>
-      <c r="J40" s="5" t="n"/>
-      <c r="K40" s="5" t="n"/>
-      <c r="L40" s="5" t="n"/>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L40" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M40" s="5" t="n"/>
     </row>
     <row r="41">
@@ -2463,7 +2943,7 @@
       </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="H41" s="5" t="inlineStr">
@@ -2476,9 +2956,21 @@
           <t>ERROR_10010014,Price exceeds the high - low price range</t>
         </is>
       </c>
-      <c r="J41" s="5" t="n"/>
-      <c r="K41" s="5" t="n"/>
-      <c r="L41" s="5" t="n"/>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L41" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M41" s="5" t="n"/>
     </row>
     <row r="42">
@@ -2519,17 +3011,25 @@
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="I42" s="5" t="inlineStr">
-        <is>
-          <t>ERROR_10010015,Tick-size is not matched with small tick</t>
-        </is>
-      </c>
-      <c r="J42" s="5" t="n"/>
-      <c r="K42" s="5" t="n"/>
-      <c r="L42" s="5" t="n"/>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I42" s="5" t="inlineStr"/>
+      <c r="J42" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L42" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M42" s="5" t="n"/>
     </row>
     <row r="43">
@@ -2570,17 +3070,25 @@
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I43" s="5" t="inlineStr"/>
+      <c r="J43" s="5" t="inlineStr">
+        <is>
           <t>['8']</t>
         </is>
       </c>
-      <c r="I43" s="5" t="inlineStr">
-        <is>
-          <t>ERROR_10010015,Tick-size is not matched with small tick</t>
-        </is>
-      </c>
-      <c r="J43" s="5" t="n"/>
-      <c r="K43" s="5" t="n"/>
-      <c r="L43" s="5" t="n"/>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_20010063,Order rejected due to SOR Limit Price Control, sor_price=1825 exceeds TSE_Low=1825.5</t>
+        </is>
+      </c>
+      <c r="L43" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M43" s="5" t="n"/>
     </row>
     <row r="44">
@@ -2621,17 +3129,25 @@
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I44" s="5" t="inlineStr"/>
+      <c r="J44" s="5" t="inlineStr">
+        <is>
           <t>['8']</t>
         </is>
       </c>
-      <c r="I44" s="5" t="inlineStr">
-        <is>
-          <t>ERROR_10010015,Tick-size is not matched with small tick</t>
-        </is>
-      </c>
-      <c r="J44" s="5" t="n"/>
-      <c r="K44" s="5" t="n"/>
-      <c r="L44" s="5" t="n"/>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_20010037,Order rejected due to special quote: symbol=6965</t>
+        </is>
+      </c>
+      <c r="L44" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M44" s="5" t="n"/>
     </row>
     <row r="45">
@@ -2672,17 +3188,25 @@
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="I45" s="5" t="inlineStr">
-        <is>
-          <t>ERROR_10010015,Tick-size is not matched with small tick</t>
-        </is>
-      </c>
-      <c r="J45" s="5" t="n"/>
-      <c r="K45" s="5" t="n"/>
-      <c r="L45" s="5" t="n"/>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="J45" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L45" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M45" s="5" t="n"/>
     </row>
     <row r="46">
@@ -2723,17 +3247,25 @@
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="I46" s="5" t="inlineStr">
-        <is>
-          <t>ERROR_10010015,Tick-size is not matched with small tick</t>
-        </is>
-      </c>
-      <c r="J46" s="5" t="n"/>
-      <c r="K46" s="5" t="n"/>
-      <c r="L46" s="5" t="n"/>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr"/>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L46" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M46" s="5" t="n"/>
     </row>
     <row r="47">
@@ -2774,17 +3306,25 @@
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="I47" s="5" t="inlineStr">
-        <is>
-          <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
-        </is>
-      </c>
-      <c r="J47" s="5" t="n"/>
-      <c r="K47" s="5" t="n"/>
-      <c r="L47" s="5" t="n"/>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I47" s="5" t="inlineStr"/>
+      <c r="J47" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L47" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M47" s="5" t="n"/>
     </row>
     <row r="48">
@@ -2825,17 +3365,25 @@
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="I48" s="5" t="inlineStr">
-        <is>
-          <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
-        </is>
-      </c>
-      <c r="J48" s="5" t="n"/>
-      <c r="K48" s="5" t="n"/>
-      <c r="L48" s="5" t="n"/>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I48" s="5" t="inlineStr"/>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L48" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M48" s="5" t="n"/>
     </row>
     <row r="49">
@@ -2876,7 +3424,7 @@
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['0', '4']</t>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
@@ -2884,9 +3432,21 @@
           <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
         </is>
       </c>
-      <c r="J49" s="5" t="n"/>
-      <c r="K49" s="5" t="n"/>
-      <c r="L49" s="5" t="n"/>
+      <c r="J49" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L49" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M49" s="5" t="n"/>
     </row>
     <row r="50">
@@ -2927,7 +3487,7 @@
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['0', '4']</t>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
@@ -2935,9 +3495,21 @@
           <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
         </is>
       </c>
-      <c r="J50" s="5" t="n"/>
-      <c r="K50" s="5" t="n"/>
-      <c r="L50" s="5" t="n"/>
+      <c r="J50" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L50" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M50" s="5" t="n"/>
     </row>
     <row r="51">
@@ -2978,7 +3550,7 @@
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['0', '4']</t>
         </is>
       </c>
       <c r="I51" s="5" t="inlineStr">
@@ -2986,9 +3558,21 @@
           <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
         </is>
       </c>
-      <c r="J51" s="5" t="n"/>
-      <c r="K51" s="5" t="n"/>
-      <c r="L51" s="5" t="n"/>
+      <c r="J51" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L51" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M51" s="5" t="n"/>
     </row>
     <row r="52">
@@ -3029,7 +3613,7 @@
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['0', '4']</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
@@ -3037,9 +3621,21 @@
           <t>ERROR_10010016,Tick-size is not matched with non-small tick</t>
         </is>
       </c>
-      <c r="J52" s="5" t="n"/>
-      <c r="K52" s="5" t="n"/>
-      <c r="L52" s="5" t="n"/>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L52" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M52" s="5" t="n"/>
     </row>
     <row r="53">
@@ -3088,9 +3684,21 @@
           <t>ERROR_10010018,Invalid quantity or lot_size</t>
         </is>
       </c>
-      <c r="J53" s="5" t="n"/>
-      <c r="K53" s="5" t="n"/>
-      <c r="L53" s="5" t="n"/>
+      <c r="J53" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010018,Invalid quantity or lot_size: quantity=99,lot_size=100</t>
+        </is>
+      </c>
+      <c r="L53" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M53" s="5" t="n"/>
     </row>
     <row r="54">
@@ -3139,9 +3747,21 @@
           <t>ERROR_10010018,Invalid quantity or lot_size</t>
         </is>
       </c>
-      <c r="J54" s="5" t="n"/>
-      <c r="K54" s="5" t="n"/>
-      <c r="L54" s="5" t="n"/>
+      <c r="J54" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010018,Invalid quantity or lot_size: quantity=0,lot_size=100</t>
+        </is>
+      </c>
+      <c r="L54" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M54" s="5" t="n"/>
     </row>
     <row r="55">
@@ -3186,9 +3806,21 @@
         </is>
       </c>
       <c r="I55" s="5" t="inlineStr"/>
-      <c r="J55" s="5" t="n"/>
-      <c r="K55" s="5" t="n"/>
-      <c r="L55" s="5" t="n"/>
+      <c r="J55" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L55" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M55" s="5" t="n"/>
     </row>
     <row r="56">
@@ -3233,9 +3865,21 @@
         </is>
       </c>
       <c r="I56" s="5" t="inlineStr"/>
-      <c r="J56" s="5" t="n"/>
-      <c r="K56" s="5" t="n"/>
-      <c r="L56" s="5" t="n"/>
+      <c r="J56" s="5" t="inlineStr">
+        <is>
+          <t>['0', '2', '2']</t>
+        </is>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L56" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M56" s="5" t="n"/>
     </row>
     <row r="57">
@@ -3284,9 +3928,21 @@
           <t>ERROR_10010018,Invalid quantity or lot_size</t>
         </is>
       </c>
-      <c r="J57" s="5" t="n"/>
-      <c r="K57" s="5" t="n"/>
-      <c r="L57" s="5" t="n"/>
+      <c r="J57" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010018,Invalid quantity or lot_size: quantity=101,lot_size=100</t>
+        </is>
+      </c>
+      <c r="L57" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M57" s="5" t="n"/>
     </row>
     <row r="58">
@@ -3331,9 +3987,21 @@
         </is>
       </c>
       <c r="I58" s="5" t="inlineStr"/>
-      <c r="J58" s="5" t="n"/>
-      <c r="K58" s="5" t="n"/>
-      <c r="L58" s="5" t="n"/>
+      <c r="J58" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L58" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M58" s="5" t="n"/>
     </row>
     <row r="59">
@@ -3378,9 +4046,21 @@
         </is>
       </c>
       <c r="I59" s="5" t="inlineStr"/>
-      <c r="J59" s="5" t="n"/>
-      <c r="K59" s="5" t="n"/>
-      <c r="L59" s="5" t="n"/>
+      <c r="J59" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_20010063,Order rejected due to SOR Limit Price Control, sor_price=17000 exceeds TSE_Low=17090</t>
+        </is>
+      </c>
+      <c r="L59" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M59" s="5" t="n"/>
     </row>
     <row r="60">
@@ -3425,9 +4105,21 @@
         </is>
       </c>
       <c r="I60" s="5" t="inlineStr"/>
-      <c r="J60" s="5" t="n"/>
-      <c r="K60" s="5" t="n"/>
-      <c r="L60" s="5" t="n"/>
+      <c r="J60" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_20010024,Failed to get TSE High to set price for market order</t>
+        </is>
+      </c>
+      <c r="L60" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M60" s="5" t="n"/>
     </row>
     <row r="61">
@@ -3472,9 +4164,21 @@
         </is>
       </c>
       <c r="I61" s="5" t="inlineStr"/>
-      <c r="J61" s="5" t="n"/>
-      <c r="K61" s="5" t="n"/>
-      <c r="L61" s="5" t="n"/>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_20010024,Failed to get TSE High to set price for market order</t>
+        </is>
+      </c>
+      <c r="L61" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M61" s="5" t="n"/>
     </row>
     <row r="62">
@@ -3523,9 +4227,21 @@
           <t>ERROR_10010018,Invalid quantity or lot_size</t>
         </is>
       </c>
-      <c r="J62" s="5" t="n"/>
-      <c r="K62" s="5" t="n"/>
-      <c r="L62" s="5" t="n"/>
+      <c r="J62" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010018,Invalid quantity or lot_size: quantity=1001,lot_size=1000</t>
+        </is>
+      </c>
+      <c r="L62" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M62" s="5" t="n"/>
     </row>
     <row r="63">
@@ -3574,9 +4290,21 @@
           <t>ERROR_10010011,Notional limit is exceeded</t>
         </is>
       </c>
-      <c r="J63" s="5" t="n"/>
-      <c r="K63" s="5" t="n"/>
-      <c r="L63" s="5" t="n"/>
+      <c r="J63" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_20010024,Failed to get TSE High to set price for market order</t>
+        </is>
+      </c>
+      <c r="L63" s="5" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
       <c r="M63" s="5" t="n"/>
     </row>
     <row r="64">
@@ -3625,9 +4353,21 @@
           <t>ERROR_10010003,OrdType is not supported</t>
         </is>
       </c>
-      <c r="J64" s="5" t="n"/>
-      <c r="K64" s="5" t="n"/>
-      <c r="L64" s="5" t="n"/>
+      <c r="J64" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010003,OrdType is not supported: ordType=9</t>
+        </is>
+      </c>
+      <c r="L64" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M64" s="5" t="n"/>
     </row>
     <row r="65">
@@ -3676,9 +4416,21 @@
           <t>ERROR_10010012,TimeInForce is not supported</t>
         </is>
       </c>
-      <c r="J65" s="5" t="n"/>
-      <c r="K65" s="5" t="n"/>
-      <c r="L65" s="5" t="n"/>
+      <c r="J65" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010012,TimeInForce is not supported: timeInForce=6</t>
+        </is>
+      </c>
+      <c r="L65" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M65" s="5" t="n"/>
     </row>
     <row r="66">
@@ -3727,9 +4479,21 @@
           <t>ERROR_10010004,Side is not supported</t>
         </is>
       </c>
-      <c r="J66" s="5" t="n"/>
-      <c r="K66" s="5" t="n"/>
-      <c r="L66" s="5" t="n"/>
+      <c r="J66" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010004,Side is not supported: side=5</t>
+        </is>
+      </c>
+      <c r="L66" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M66" s="5" t="n"/>
     </row>
     <row r="67">
@@ -3778,9 +4542,21 @@
           <t>ERROR_10010009,Invalid account</t>
         </is>
       </c>
-      <c r="J67" s="5" t="n"/>
-      <c r="K67" s="5" t="n"/>
-      <c r="L67" s="5" t="n"/>
+      <c r="J67" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010009,Invalid account: senderCompID=RUAT_EDP_5, account=RUAT_EDP_ACCOUNT_53</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M67" s="5" t="n"/>
     </row>
     <row r="68">
@@ -3829,9 +4605,21 @@
           <t>ERROR_10010025,Rule80A is not supported</t>
         </is>
       </c>
-      <c r="J68" s="5" t="n"/>
-      <c r="K68" s="5" t="n"/>
-      <c r="L68" s="5" t="n"/>
+      <c r="J68" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010025,Rule80A is not supported: rule80A=S</t>
+        </is>
+      </c>
+      <c r="L68" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M68" s="5" t="n"/>
     </row>
     <row r="69">
@@ -3880,9 +4668,21 @@
           <t>ERROR_10010026,CashMargin is not supported</t>
         </is>
       </c>
-      <c r="J69" s="5" t="n"/>
-      <c r="K69" s="5" t="n"/>
-      <c r="L69" s="5" t="n"/>
+      <c r="J69" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K69" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010026,CashMargin is not supported: cashMargin=2</t>
+        </is>
+      </c>
+      <c r="L69" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M69" s="5" t="n"/>
     </row>
     <row r="70">
@@ -3931,9 +4731,21 @@
           <t>ERROR_10010027,MarginTransactionType is not supported</t>
         </is>
       </c>
-      <c r="J70" s="5" t="n"/>
-      <c r="K70" s="5" t="n"/>
-      <c r="L70" s="5" t="n"/>
+      <c r="J70" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K70" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010027,MarginTransactionType is not supported: marginTransactionType=1</t>
+        </is>
+      </c>
+      <c r="L70" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M70" s="5" t="n"/>
     </row>
     <row r="71">
@@ -3982,9 +4794,21 @@
           <t>ERROR_10010028,CrossingPriceType is not supported</t>
         </is>
       </c>
-      <c r="J71" s="5" t="n"/>
-      <c r="K71" s="5" t="n"/>
-      <c r="L71" s="5" t="n"/>
+      <c r="J71" s="5" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="K71" s="5" t="inlineStr">
+        <is>
+          <t>ERROR_10010028,CrossingPriceType is not supported: crossingPriceType=ROL</t>
+        </is>
+      </c>
+      <c r="L71" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M71" s="5" t="n"/>
     </row>
     <row r="72">
@@ -4029,9 +4853,21 @@
         </is>
       </c>
       <c r="I72" s="5" t="inlineStr"/>
-      <c r="J72" s="5" t="n"/>
-      <c r="K72" s="5" t="n"/>
-      <c r="L72" s="5" t="n"/>
+      <c r="J72" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K72" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L72" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M72" s="5" t="n"/>
     </row>
     <row r="73">
@@ -4076,9 +4912,21 @@
         </is>
       </c>
       <c r="I73" s="5" t="inlineStr"/>
-      <c r="J73" s="5" t="n"/>
-      <c r="K73" s="5" t="n"/>
-      <c r="L73" s="5" t="n"/>
+      <c r="J73" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K73" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L73" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M73" s="5" t="n"/>
     </row>
     <row r="74">
@@ -4123,9 +4971,21 @@
         </is>
       </c>
       <c r="I74" s="5" t="inlineStr"/>
-      <c r="J74" s="5" t="n"/>
-      <c r="K74" s="5" t="n"/>
-      <c r="L74" s="5" t="n"/>
+      <c r="J74" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K74" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L74" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M74" s="5" t="n"/>
     </row>
     <row r="75">
@@ -4170,9 +5030,21 @@
         </is>
       </c>
       <c r="I75" s="5" t="inlineStr"/>
-      <c r="J75" s="5" t="n"/>
-      <c r="K75" s="5" t="n"/>
-      <c r="L75" s="5" t="n"/>
+      <c r="J75" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K75" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L75" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M75" s="5" t="n"/>
     </row>
     <row r="76">
@@ -4217,9 +5089,21 @@
         </is>
       </c>
       <c r="I76" s="5" t="inlineStr"/>
-      <c r="J76" s="5" t="n"/>
-      <c r="K76" s="5" t="n"/>
-      <c r="L76" s="5" t="n"/>
+      <c r="J76" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K76" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L76" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M76" s="5" t="n"/>
     </row>
     <row r="77">
@@ -4264,9 +5148,21 @@
         </is>
       </c>
       <c r="I77" s="5" t="inlineStr"/>
-      <c r="J77" s="5" t="n"/>
-      <c r="K77" s="5" t="n"/>
-      <c r="L77" s="5" t="n"/>
+      <c r="J77" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K77" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L77" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M77" s="5" t="n"/>
     </row>
     <row r="78">
@@ -4311,9 +5207,21 @@
         </is>
       </c>
       <c r="I78" s="5" t="inlineStr"/>
-      <c r="J78" s="5" t="n"/>
-      <c r="K78" s="5" t="n"/>
-      <c r="L78" s="5" t="n"/>
+      <c r="J78" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K78" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L78" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M78" s="5" t="n"/>
     </row>
     <row r="79">
@@ -4358,9 +5266,21 @@
         </is>
       </c>
       <c r="I79" s="5" t="inlineStr"/>
-      <c r="J79" s="5" t="n"/>
-      <c r="K79" s="5" t="n"/>
-      <c r="L79" s="5" t="n"/>
+      <c r="J79" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K79" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L79" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M79" s="5" t="n"/>
     </row>
     <row r="80">
@@ -4405,9 +5325,21 @@
         </is>
       </c>
       <c r="I80" s="5" t="inlineStr"/>
-      <c r="J80" s="5" t="n"/>
-      <c r="K80" s="5" t="n"/>
-      <c r="L80" s="5" t="n"/>
+      <c r="J80" s="5" t="inlineStr">
+        <is>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="K80" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L80" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="M80" s="5" t="n"/>
     </row>
   </sheetData>
